--- a/data/trans_bre/POLIPATOLOGIA_2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_2-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,04; 8,42</t>
+          <t>3,08; 8,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,9; 10,52</t>
+          <t>3,79; 10,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,52; 9,14</t>
+          <t>2,78; 9,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 15,88</t>
+          <t>-0,57; 17,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>76,1; 580,84</t>
+          <t>75,79; 579,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>85,8; 572,68</t>
+          <t>85,17; 578,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>34,84; 362,18</t>
+          <t>45,24; 389,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 217,41</t>
+          <t>-6,73; 219,53</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,36; 13,62</t>
+          <t>7,54; 13,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,23; 7,65</t>
+          <t>1,14; 7,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,69; 9,66</t>
+          <t>2,73; 9,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,6; 47,33</t>
+          <t>9,85; 46,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>119,5; 401,0</t>
+          <t>132,56; 411,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,75; 136,36</t>
+          <t>11,51; 135,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>34,55; 214,19</t>
+          <t>35,6; 219,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>77,45; 571,61</t>
+          <t>74,19; 518,7</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,9; 12,73</t>
+          <t>5,46; 13,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,1; 17,4</t>
+          <t>9,29; 17,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,51; 10,68</t>
+          <t>3,62; 10,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,49; 15,56</t>
+          <t>3,54; 15,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>45,16; 159,17</t>
+          <t>46,58; 168,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>71,67; 204,47</t>
+          <t>77,93; 209,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>30,37; 139,25</t>
+          <t>33,53; 143,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>24,83; 122,68</t>
+          <t>21,2; 126,22</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,39; 18,23</t>
+          <t>8,28; 18,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,65; 21,58</t>
+          <t>11,55; 21,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,82; 15,13</t>
+          <t>4,79; 14,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,77; 33,25</t>
+          <t>9,3; 32,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>40,63; 135,06</t>
+          <t>44,92; 137,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>61,1; 154,58</t>
+          <t>61,88; 154,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,2; 79,16</t>
+          <t>19,35; 76,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>27,74; 294,38</t>
+          <t>29,82; 346,17</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,61; 15,7</t>
+          <t>2,55; 17,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,62; 27,8</t>
+          <t>13,42; 27,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,67; 24,01</t>
+          <t>10,95; 24,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,76; 13,6</t>
+          <t>4,15; 15,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,49; 40,53</t>
+          <t>6,06; 45,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>30,73; 76,44</t>
+          <t>31,81; 74,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>26,72; 73,12</t>
+          <t>27,85; 74,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,42; 30,68</t>
+          <t>8,05; 34,38</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12,61; 27,39</t>
+          <t>12,82; 27,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 12,05</t>
+          <t>-1,63; 12,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,61; 20,28</t>
+          <t>6,28; 20,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,37; 37,74</t>
+          <t>12,15; 37,48</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>21,62; 55,19</t>
+          <t>22,13; 58,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 18,38</t>
+          <t>-2,17; 18,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,34; 38,92</t>
+          <t>10,7; 38,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>21,22; 71,56</t>
+          <t>20,61; 70,16</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,18; 18,7</t>
+          <t>3,65; 18,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,35; 14,25</t>
+          <t>1,66; 13,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,86; 13,79</t>
+          <t>0,08; 13,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,79; 13,99</t>
+          <t>3,7; 13,92</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,47; 30,34</t>
+          <t>4,83; 29,71</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,98; 18,72</t>
+          <t>1,87; 17,58</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,01; 19,44</t>
+          <t>0,11; 19,79</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,95; 19,9</t>
+          <t>4,75; 19,58</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>11,49; 15,89</t>
+          <t>11,66; 15,95</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>12,27; 16,66</t>
+          <t>12,2; 16,79</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>10,1; 14,4</t>
+          <t>9,89; 14,35</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>13,38; 31,17</t>
+          <t>13,5; 28,84</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>55,13; 84,93</t>
+          <t>56,65; 84,85</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>48,18; 71,8</t>
+          <t>48,38; 72,08</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>40,48; 62,95</t>
+          <t>40,02; 62,54</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>41,62; 128,36</t>
+          <t>41,68; 109,04</t>
         </is>
       </c>
     </row>
